--- a/Templates/Sphere_single.xlsx
+++ b/Templates/Sphere_single.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE64F23B-F374-4F5F-A988-44604FCE926C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{09084D92-067E-491D-A535-5E83BF593C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -881,7 +881,7 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -933,180 +933,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA6D86E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1514,12 +1340,12 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE38293-427D-4A21-874A-0915D97E4F4F}">
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="11" customWidth="1"/>
@@ -1673,7 +1499,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1685,43 +1511,43 @@
       <c r="J10" s="58"/>
       <c r="K10" s="54"/>
     </row>
-    <row r="11" spans="2:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="17"/>
       <c r="K11" s="55"/>
     </row>
-    <row r="12" spans="2:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="17"/>
       <c r="K12" s="55"/>
     </row>
-    <row r="13" spans="2:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="17"/>
       <c r="K13" s="55"/>
     </row>
-    <row r="14" spans="2:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="17"/>
       <c r="K14" s="55"/>
     </row>
-    <row r="15" spans="2:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="17"/>
       <c r="K15" s="55"/>
     </row>
-    <row r="16" spans="2:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="17"/>
       <c r="K16" s="55"/>
     </row>
-    <row r="17" spans="8:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="17"/>
       <c r="K17" s="55"/>
     </row>
-    <row r="18" spans="8:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="17"/>
       <c r="K18" s="55"/>
     </row>
-    <row r="19" spans="8:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H19" s="17"/>
       <c r="K19" s="55"/>
     </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I20" s="57"/>
       <c r="J20" s="58"/>
     </row>
@@ -1736,43 +1562,43 @@
     <mergeCell ref="E1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:H9 A11:XFD1048576 B10:L10 K9:L9 O7:XFD10 M4:N7 L6:XFD6 B1 D1:J1 B8:L8 L7 B3">
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="Value &lt; 0">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Value &lt; 0">
       <formula>NOT(ISERROR(SEARCH("Value &lt; 0",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="Value &gt; 0">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Value &gt; 0">
       <formula>NOT(ISERROR(SEARCH("Value &gt; 0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J1048576 I8:J8 I1:J1">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="between">
       <formula>-0.05</formula>
       <formula>-0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
       <formula>-0.01</formula>
       <formula>-0.005</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="between">
       <formula>0.005</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
       <formula>-0.005</formula>
       <formula>0.005</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Value = 0">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Value = 0">
       <formula>NOT(ISERROR(SEARCH("Value = 0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1785,12 +1611,12 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5841A6E6-1AD6-444A-A571-5AE716076592}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="38" customWidth="1"/>
@@ -1962,7 +1788,7 @@
       <c r="N9" s="52"/>
       <c r="O9" s="52"/>
     </row>
-    <row r="10" spans="2:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="36"/>
       <c r="C10" s="37"/>
       <c r="D10" s="43"/>
@@ -1975,43 +1801,43 @@
       <c r="K10" s="43"/>
       <c r="L10" s="46"/>
     </row>
-    <row r="11" spans="2:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="48"/>
       <c r="L11" s="50"/>
     </row>
-    <row r="12" spans="2:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="48"/>
       <c r="L12" s="50"/>
     </row>
-    <row r="13" spans="2:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="48"/>
       <c r="L13" s="50"/>
     </row>
-    <row r="14" spans="2:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="48"/>
       <c r="L14" s="50"/>
     </row>
-    <row r="15" spans="2:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="48"/>
       <c r="L15" s="50"/>
     </row>
-    <row r="16" spans="2:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="48"/>
       <c r="L16" s="50"/>
     </row>
-    <row r="17" spans="8:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="48"/>
       <c r="L17" s="50"/>
     </row>
-    <row r="18" spans="8:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="48"/>
       <c r="L18" s="50"/>
     </row>
-    <row r="19" spans="8:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H19" s="48"/>
       <c r="L19" s="50"/>
     </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H20" s="48"/>
       <c r="L20" s="50"/>
     </row>
@@ -2027,23 +1853,23 @@
     <mergeCell ref="N8:O8"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:L1048576">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
       <formula>0.2</formula>
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>0.1</formula>
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:L1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Templates/Sphere_single.xlsx
+++ b/Templates/Sphere_single.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{09084D92-067E-491D-A535-5E83BF593C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B24AC69D-551D-4BE4-9AAA-68D0BDEB8FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -684,33 +684,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -874,6 +847,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1340,9 +1328,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE38293-427D-4A21-874A-0915D97E4F4F}">
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1351,9 +1339,9 @@
     <col min="2" max="2" width="21.21875" style="11" customWidth="1"/>
     <col min="3" max="7" width="21.21875" style="12" customWidth="1"/>
     <col min="8" max="8" width="21.21875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" style="59" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" style="60" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" style="56" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" style="50" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" style="51" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" style="47" customWidth="1"/>
     <col min="12" max="12" width="9.21875" style="7" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="7"/>
     <col min="14" max="14" width="14.6640625" style="7" customWidth="1"/>
@@ -1364,128 +1352,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="53"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="24"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="M3" s="66" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+      <c r="M3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="67"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="79"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
       <c r="M4" s="1"/>
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="70"/>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
       <c r="M6" s="4"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
       <c r="M7" s="5"/>
       <c r="N7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:14" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
     </row>
     <row r="9" spans="2:14" s="8" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
@@ -1507,49 +1495,49 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="17"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="17"/>
-      <c r="K12" s="55"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="17"/>
-      <c r="K13" s="55"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="17"/>
-      <c r="K14" s="55"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="17"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="17"/>
-      <c r="K16" s="55"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="8:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="17"/>
-      <c r="K17" s="55"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="8:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="17"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="8:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H19" s="17"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="8:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1611,9 +1599,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5841A6E6-1AD6-444A-A571-5AE716076592}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1621,10 +1609,10 @@
     <col min="1" max="1" width="3.44140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="38" customWidth="1"/>
     <col min="3" max="3" width="21.21875" style="39" customWidth="1"/>
-    <col min="4" max="7" width="21.21875" style="47" customWidth="1"/>
-    <col min="8" max="10" width="21.21875" style="49" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" style="47" customWidth="1"/>
-    <col min="12" max="12" width="21.21875" style="51" customWidth="1"/>
+    <col min="4" max="7" width="21.21875" style="51" customWidth="1"/>
+    <col min="8" max="10" width="21.21875" style="50" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" style="51" customWidth="1"/>
+    <col min="12" max="12" width="21.21875" style="102" customWidth="1"/>
     <col min="13" max="13" width="9.21875" style="23" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="23"/>
     <col min="15" max="15" width="12.6640625" style="23" customWidth="1"/>
@@ -1635,27 +1623,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="103">
+      <c r="C1" s="91"/>
+      <c r="D1" s="94">
         <f>Values!D1</f>
         <v>0</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="104"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
@@ -1666,112 +1654,112 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
-      <c r="N3" s="84" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="N3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="85"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="91"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
       <c r="N4" s="25"/>
       <c r="O4" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
       <c r="N5" s="27"/>
       <c r="O5" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
       <c r="N6" s="28"/>
       <c r="O6" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="94"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
       <c r="N7" s="29"/>
       <c r="O7" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:15" s="31" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="96"/>
-      <c r="N8" s="106" t="s">
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="87"/>
+      <c r="N8" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="106"/>
+      <c r="O8" s="97"/>
     </row>
     <row r="9" spans="2:15" s="31" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="32"/>
@@ -1785,61 +1773,61 @@
       <c r="J9" s="34"/>
       <c r="K9" s="33"/>
       <c r="L9" s="35"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="36"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="46"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="99"/>
     </row>
     <row r="11" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="48"/>
-      <c r="L11" s="50"/>
+      <c r="H11" s="100"/>
+      <c r="L11" s="101"/>
     </row>
     <row r="12" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="48"/>
-      <c r="L12" s="50"/>
+      <c r="H12" s="100"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="48"/>
-      <c r="L13" s="50"/>
+      <c r="H13" s="100"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="48"/>
-      <c r="L14" s="50"/>
+      <c r="H14" s="100"/>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="48"/>
-      <c r="L15" s="50"/>
+      <c r="H15" s="100"/>
+      <c r="L15" s="101"/>
     </row>
     <row r="16" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="48"/>
-      <c r="L16" s="50"/>
+      <c r="H16" s="100"/>
+      <c r="L16" s="101"/>
     </row>
     <row r="17" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="48"/>
-      <c r="L17" s="50"/>
+      <c r="H17" s="100"/>
+      <c r="L17" s="101"/>
     </row>
     <row r="18" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="48"/>
-      <c r="L18" s="50"/>
+      <c r="H18" s="100"/>
+      <c r="L18" s="101"/>
     </row>
     <row r="19" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="48"/>
-      <c r="L19" s="50"/>
+      <c r="H19" s="100"/>
+      <c r="L19" s="101"/>
     </row>
     <row r="20" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="48"/>
-      <c r="L20" s="50"/>
+      <c r="H20" s="100"/>
+      <c r="L20" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Templates/Sphere_single.xlsx
+++ b/Templates/Sphere_single.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B24AC69D-551D-4BE4-9AAA-68D0BDEB8FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5279194F-F82E-4659-9BFA-46B5042D7377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
     <sheet name="Errors" sheetId="3" r:id="rId2"/>
+    <sheet name="Statistical Checks" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="19" uniqueCount="15">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="23" uniqueCount="16">
   <si>
     <t>ZAID</t>
   </si>
@@ -80,6 +81,9 @@
   </si>
   <si>
     <t>&gt;|5|%</t>
+  </si>
+  <si>
+    <t>SPHERE LEAKAGE TEST RESULTS RECAP: STATISTICAL CHECKS</t>
   </si>
 </sst>
 </file>
@@ -572,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -711,6 +715,21 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -849,19 +868,16 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -869,7 +885,530 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1352,23 +1891,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
       <c r="K1" s="44"/>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1378,102 +1917,102 @@
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
-      <c r="M3" s="57" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
+      <c r="M3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="58"/>
+      <c r="N3" s="63"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
       <c r="M4" s="1"/>
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="75"/>
       <c r="M6" s="4"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
       <c r="M7" s="5"/>
       <c r="N7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:14" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="2:14" s="8" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
@@ -1550,43 +2089,43 @@
     <mergeCell ref="E1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:H9 A11:XFD1048576 B10:L10 K9:L9 O7:XFD10 M4:N7 L6:XFD6 B1 D1:J1 B8:L8 L7 B3">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Value &lt; 0">
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="Value &lt; 0">
       <formula>NOT(ISERROR(SEARCH("Value &lt; 0",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Value &gt; 0">
+    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="Value &gt; 0">
       <formula>NOT(ISERROR(SEARCH("Value &gt; 0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J1048576 I8:J8 I1:J1">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="between">
       <formula>-0.05</formula>
       <formula>-0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="between">
       <formula>-0.01</formula>
       <formula>-0.005</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="between">
       <formula>0.005</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="between">
       <formula>-0.005</formula>
       <formula>0.005</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Value = 0">
+    <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="Value = 0">
       <formula>NOT(ISERROR(SEARCH("Value = 0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1599,9 +2138,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5841A6E6-1AD6-444A-A571-5AE716076592}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1612,7 +2151,7 @@
     <col min="4" max="7" width="21.21875" style="51" customWidth="1"/>
     <col min="8" max="10" width="21.21875" style="50" customWidth="1"/>
     <col min="11" max="11" width="21.21875" style="51" customWidth="1"/>
-    <col min="12" max="12" width="21.21875" style="102" customWidth="1"/>
+    <col min="12" max="12" width="21.21875" style="56" customWidth="1"/>
     <col min="13" max="13" width="9.21875" style="23" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="23"/>
     <col min="15" max="15" width="12.6640625" style="23" customWidth="1"/>
@@ -1623,27 +2162,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="94">
+      <c r="C1" s="96"/>
+      <c r="D1" s="99">
         <f>Values!D1</f>
         <v>0</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
@@ -1654,112 +2193,112 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
-      <c r="N3" s="75" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
+      <c r="N3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="76"/>
+      <c r="O3" s="81"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="87"/>
       <c r="N4" s="25"/>
       <c r="O4" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="82"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
       <c r="N5" s="27"/>
       <c r="O5" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="82"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
       <c r="N6" s="28"/>
       <c r="O6" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="83"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="90"/>
       <c r="N7" s="29"/>
       <c r="O7" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:15" s="31" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="87"/>
-      <c r="N8" s="97" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="92"/>
+      <c r="N8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="97"/>
+      <c r="O8" s="102"/>
     </row>
     <row r="9" spans="2:15" s="31" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="32"/>
@@ -1783,51 +2322,51 @@
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="98"/>
+      <c r="H10" s="52"/>
       <c r="I10" s="48"/>
       <c r="J10" s="48"/>
       <c r="K10" s="49"/>
-      <c r="L10" s="99"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="100"/>
-      <c r="L11" s="101"/>
+      <c r="H11" s="54"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="100"/>
-      <c r="L12" s="101"/>
+      <c r="H12" s="54"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="100"/>
-      <c r="L13" s="101"/>
+      <c r="H13" s="54"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="H14" s="54"/>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="100"/>
-      <c r="L15" s="101"/>
+      <c r="H15" s="54"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="100"/>
-      <c r="L16" s="101"/>
+      <c r="H16" s="54"/>
+      <c r="L16" s="55"/>
     </row>
     <row r="17" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="100"/>
-      <c r="L17" s="101"/>
+      <c r="H17" s="54"/>
+      <c r="L17" s="55"/>
     </row>
     <row r="18" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="100"/>
-      <c r="L18" s="101"/>
+      <c r="H18" s="54"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="100"/>
-      <c r="L19" s="101"/>
+      <c r="H19" s="54"/>
+      <c r="L19" s="55"/>
     </row>
     <row r="20" spans="8:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="100"/>
-      <c r="L20" s="101"/>
+      <c r="H20" s="54"/>
+      <c r="L20" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1841,27 +2380,286 @@
     <mergeCell ref="N8:O8"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:L1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="between">
       <formula>0.2</formula>
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="between">
       <formula>0.1</formula>
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:L1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0835C0-1E1C-493C-B3D7-9EBC4CA9F869}">
+  <dimension ref="B1:Q20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="39" customWidth="1"/>
+    <col min="4" max="7" width="21.21875" style="12" customWidth="1"/>
+    <col min="8" max="12" width="21.21875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="21.21875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" style="106" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="23" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="23"/>
+    <col min="17" max="17" width="12.6640625" style="23" customWidth="1"/>
+    <col min="18" max="19" width="8.88671875" style="23"/>
+    <col min="20" max="20" width="12" style="23" customWidth="1"/>
+    <col min="21" max="21" width="14.77734375" style="23" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="96"/>
+      <c r="D1" s="99">
+        <f>Values!D1</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="43"/>
+    </row>
+    <row r="2" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+    </row>
+    <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="84"/>
+    </row>
+    <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="87"/>
+    </row>
+    <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="87"/>
+    </row>
+    <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
+    </row>
+    <row r="7" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90"/>
+    </row>
+    <row r="8" spans="2:17" s="31" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="92"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="2:17" s="31" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="35"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="104"/>
+    </row>
+    <row r="11" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="17"/>
+      <c r="N11" s="105"/>
+    </row>
+    <row r="12" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="17"/>
+      <c r="N12" s="105"/>
+    </row>
+    <row r="13" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="17"/>
+      <c r="N13" s="105"/>
+    </row>
+    <row r="14" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="17"/>
+      <c r="N14" s="105"/>
+    </row>
+    <row r="15" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="17"/>
+      <c r="N15" s="105"/>
+    </row>
+    <row r="16" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="17"/>
+      <c r="N16" s="105"/>
+    </row>
+    <row r="17" spans="8:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="17"/>
+      <c r="N17" s="105"/>
+    </row>
+    <row r="18" spans="8:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="17"/>
+      <c r="N18" s="105"/>
+    </row>
+    <row r="19" spans="8:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="17"/>
+      <c r="N19" s="105"/>
+    </row>
+    <row r="20" spans="8:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="17"/>
+      <c r="N20" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="B3:N7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D10:N1048576">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Missed">
+      <formula>NOT(ISERROR(SEARCH("Missed",D10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="All zeros">
+      <formula>NOT(ISERROR(SEARCH("All zeros",D10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",D10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Templates/Sphere_single.xlsx
+++ b/Templates/Sphere_single.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5279194F-F82E-4659-9BFA-46B5042D7377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CFA0D0FE-7546-4797-9DF6-E7F9EF5D3522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -730,6 +730,18 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -866,18 +878,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -885,7 +885,148 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -913,546 +1054,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1869,7 +1470,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1891,23 +1492,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
       <c r="K1" s="44"/>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1917,102 +1518,102 @@
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72"/>
-      <c r="M3" s="62" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="M3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="63"/>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
       <c r="M4" s="1"/>
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="75"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
       <c r="M6" s="4"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="76"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="82"/>
       <c r="M7" s="5"/>
       <c r="N7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:14" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
     </row>
     <row r="9" spans="2:14" s="8" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
@@ -2089,43 +1690,43 @@
     <mergeCell ref="E1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:H9 A11:XFD1048576 B10:L10 K9:L9 O7:XFD10 M4:N7 L6:XFD6 B1 D1:J1 B8:L8 L7 B3">
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="Value &lt; 0">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Value &lt; 0">
       <formula>NOT(ISERROR(SEARCH("Value &lt; 0",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="Value &gt; 0">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="Value &gt; 0">
       <formula>NOT(ISERROR(SEARCH("Value &gt; 0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J1048576 I8:J8 I1:J1">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="between">
       <formula>-0.05</formula>
       <formula>-0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="between">
       <formula>-0.01</formula>
       <formula>-0.005</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="between">
       <formula>0.005</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="between">
       <formula>-0.005</formula>
       <formula>0.005</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="Value = 0">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Value = 0">
       <formula>NOT(ISERROR(SEARCH("Value = 0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2138,9 +1739,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5841A6E6-1AD6-444A-A571-5AE716076592}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2162,27 +1763,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="99">
+      <c r="C1" s="100"/>
+      <c r="D1" s="103">
         <f>Values!D1</f>
         <v>0</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
@@ -2193,112 +1794,112 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="84"/>
-      <c r="N3" s="80" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
+      <c r="N3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="81"/>
+      <c r="O3" s="85"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="87"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
       <c r="N4" s="25"/>
       <c r="O4" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
       <c r="N5" s="27"/>
       <c r="O5" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
       <c r="N6" s="28"/>
       <c r="O6" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="88"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="90"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94"/>
       <c r="N7" s="29"/>
       <c r="O7" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:15" s="31" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="92"/>
-      <c r="N8" s="102" t="s">
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="96"/>
+      <c r="N8" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="102"/>
+      <c r="O8" s="106"/>
     </row>
     <row r="9" spans="2:15" s="31" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="32"/>
@@ -2380,24 +1981,22 @@
     <mergeCell ref="N8:O8"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:L1048576">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>0.2</formula>
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
       <formula>0.1</formula>
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:L1048576">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2409,7 +2008,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0835C0-1E1C-493C-B3D7-9EBC4CA9F869}">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
@@ -2422,7 +2021,7 @@
     <col min="4" max="7" width="21.21875" style="12" customWidth="1"/>
     <col min="8" max="12" width="21.21875" style="13" customWidth="1"/>
     <col min="13" max="13" width="21.21875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="21.21875" style="106" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" style="60" customWidth="1"/>
     <col min="15" max="15" width="9.21875" style="23" customWidth="1"/>
     <col min="16" max="16" width="8.88671875" style="23"/>
     <col min="17" max="17" width="12.6640625" style="23" customWidth="1"/>
@@ -2433,29 +2032,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="99">
+      <c r="C1" s="100"/>
+      <c r="D1" s="103">
         <f>Values!D1</f>
         <v>0</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
       <c r="N1" s="43"/>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
@@ -2470,100 +2069,100 @@
       <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
     </row>
     <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="87"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="87"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="91"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="91"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="88"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="94"/>
     </row>
     <row r="8" spans="2:17" s="31" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="92"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="96"/>
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
     </row>
@@ -2592,52 +2191,52 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="104"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="17"/>
-      <c r="N11" s="105"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="17"/>
-      <c r="N12" s="105"/>
+      <c r="N12" s="59"/>
     </row>
     <row r="13" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="17"/>
-      <c r="N13" s="105"/>
+      <c r="N13" s="59"/>
     </row>
     <row r="14" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="17"/>
-      <c r="N14" s="105"/>
+      <c r="N14" s="59"/>
     </row>
     <row r="15" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="17"/>
-      <c r="N15" s="105"/>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="17"/>
-      <c r="N16" s="105"/>
+      <c r="N16" s="59"/>
     </row>
     <row r="17" spans="8:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="17"/>
-      <c r="N17" s="105"/>
+      <c r="N17" s="59"/>
     </row>
     <row r="18" spans="8:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="17"/>
-      <c r="N18" s="105"/>
+      <c r="N18" s="59"/>
     </row>
     <row r="19" spans="8:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H19" s="17"/>
-      <c r="N19" s="105"/>
+      <c r="N19" s="59"/>
     </row>
     <row r="20" spans="8:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H20" s="17"/>
-      <c r="N20" s="105"/>
+      <c r="N20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2649,13 +2248,13 @@
     <mergeCell ref="B3:N7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:N1048576">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Missed">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Missed">
       <formula>NOT(ISERROR(SEARCH("Missed",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="All zeros">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="All zeros">
       <formula>NOT(ISERROR(SEARCH("All zeros",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
